--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H2">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N2">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O2">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P2">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q2">
-        <v>144.1764633777713</v>
+        <v>343.4610289297446</v>
       </c>
       <c r="R2">
-        <v>144.1764633777713</v>
+        <v>3091.149260367702</v>
       </c>
       <c r="S2">
-        <v>0.008955380908217628</v>
+        <v>0.01626327721023487</v>
       </c>
       <c r="T2">
-        <v>0.008955380908217628</v>
+        <v>0.01626327721023487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H3">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P3">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q3">
-        <v>0.9109468287107448</v>
+        <v>2.249508911181334</v>
       </c>
       <c r="R3">
-        <v>0.9109468287107448</v>
+        <v>20.245580200632</v>
       </c>
       <c r="S3">
-        <v>5.658257698319542E-05</v>
+        <v>0.0001065168503205032</v>
       </c>
       <c r="T3">
-        <v>5.658257698319542E-05</v>
+        <v>0.0001065168503205033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H4">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N4">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O4">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P4">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q4">
-        <v>54.05755280053608</v>
+        <v>104.6240334879953</v>
       </c>
       <c r="R4">
-        <v>54.05755280053608</v>
+        <v>941.616301391958</v>
       </c>
       <c r="S4">
-        <v>0.003357732357648643</v>
+        <v>0.004954069067953018</v>
       </c>
       <c r="T4">
-        <v>0.003357732357648643</v>
+        <v>0.004954069067953019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H5">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N5">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O5">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P5">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q5">
-        <v>6.016043483239554</v>
+        <v>12.32071519785633</v>
       </c>
       <c r="R5">
-        <v>6.016043483239554</v>
+        <v>110.886436780707</v>
       </c>
       <c r="S5">
-        <v>0.000373680694411575</v>
+        <v>0.000583400123488474</v>
       </c>
       <c r="T5">
-        <v>0.000373680694411575</v>
+        <v>0.000583400123488474</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H6">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N6">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O6">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P6">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q6">
-        <v>9428.14004472876</v>
+        <v>12697.53602143627</v>
       </c>
       <c r="R6">
-        <v>9428.14004472876</v>
+        <v>114277.8241929265</v>
       </c>
       <c r="S6">
-        <v>0.5856197563629767</v>
+        <v>0.6012430255829738</v>
       </c>
       <c r="T6">
-        <v>0.5856197563629767</v>
+        <v>0.6012430255829737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H7">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P7">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q7">
-        <v>59.56960014952482</v>
+        <v>83.1629152200249</v>
       </c>
       <c r="R7">
-        <v>59.56960014952482</v>
+        <v>748.4662369802242</v>
       </c>
       <c r="S7">
-        <v>0.003700107821977975</v>
+        <v>0.003937860280827325</v>
       </c>
       <c r="T7">
-        <v>0.003700107821977975</v>
+        <v>0.003937860280827325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H8">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N8">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O8">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P8">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q8">
-        <v>3534.988765422524</v>
+        <v>3867.884045131406</v>
       </c>
       <c r="R8">
-        <v>3534.988765422524</v>
+        <v>34810.95640618266</v>
       </c>
       <c r="S8">
-        <v>0.2195723917688322</v>
+        <v>0.1831487858725418</v>
       </c>
       <c r="T8">
-        <v>0.2195723917688322</v>
+        <v>0.1831487858725418</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H9">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N9">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O9">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P9">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q9">
-        <v>393.4074893108057</v>
+        <v>455.4890128936249</v>
       </c>
       <c r="R9">
-        <v>393.4074893108057</v>
+        <v>4099.401116042624</v>
       </c>
       <c r="S9">
-        <v>0.02443612387475864</v>
+        <v>0.0215679319018768</v>
       </c>
       <c r="T9">
-        <v>0.02443612387475864</v>
+        <v>0.0215679319018768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H10">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N10">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O10">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P10">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q10">
-        <v>133.1741272240667</v>
+        <v>220.1557918348475</v>
       </c>
       <c r="R10">
-        <v>133.1741272240667</v>
+        <v>1981.402126513628</v>
       </c>
       <c r="S10">
-        <v>0.008271981490390948</v>
+        <v>0.01042463153157698</v>
       </c>
       <c r="T10">
-        <v>0.008271981490390948</v>
+        <v>0.01042463153157698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H11">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N11">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O11">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P11">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q11">
-        <v>0.8414310215337738</v>
+        <v>1.441917346849778</v>
       </c>
       <c r="R11">
-        <v>0.8414310215337738</v>
+        <v>12.977256121648</v>
       </c>
       <c r="S11">
-        <v>5.226467017769415E-05</v>
+        <v>6.827645511672044E-05</v>
       </c>
       <c r="T11">
-        <v>5.226467017769415E-05</v>
+        <v>6.827645511672044E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H12">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N12">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O12">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P12">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q12">
-        <v>49.93233462258879</v>
+        <v>67.06317455951245</v>
       </c>
       <c r="R12">
-        <v>49.93233462258879</v>
+        <v>603.568571035612</v>
       </c>
       <c r="S12">
-        <v>0.003101498439521358</v>
+        <v>0.003175518928183317</v>
       </c>
       <c r="T12">
-        <v>0.003101498439521358</v>
+        <v>0.003175518928183318</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H13">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N13">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O13">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P13">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q13">
-        <v>5.556949598099141</v>
+        <v>7.897480592799778</v>
       </c>
       <c r="R13">
-        <v>5.556949598099141</v>
+        <v>71.077325335198</v>
       </c>
       <c r="S13">
-        <v>0.0003451645238956336</v>
+        <v>0.000373954845891483</v>
       </c>
       <c r="T13">
-        <v>0.0003451645238956336</v>
+        <v>0.000373954845891483</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H14">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N14">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O14">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P14">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q14">
-        <v>1608.34467010874</v>
+        <v>2416.799487076859</v>
       </c>
       <c r="R14">
-        <v>1608.34467010874</v>
+        <v>21751.19538369173</v>
       </c>
       <c r="S14">
-        <v>0.0999007661520019</v>
+        <v>0.1144382526959829</v>
       </c>
       <c r="T14">
-        <v>0.0999007661520019</v>
+        <v>0.1144382526959829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H15">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N15">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O15">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P15">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q15">
-        <v>10.16196709493759</v>
+        <v>15.82890495512356</v>
       </c>
       <c r="R15">
-        <v>10.16196709493759</v>
+        <v>142.460144596112</v>
       </c>
       <c r="S15">
-        <v>0.0006312007104342014</v>
+        <v>0.0007495169685533449</v>
       </c>
       <c r="T15">
-        <v>0.0006312007104342014</v>
+        <v>0.0007495169685533449</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H16">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N16">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O16">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P16">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q16">
-        <v>603.0330810519011</v>
+        <v>736.197964751981</v>
       </c>
       <c r="R16">
-        <v>603.0330810519011</v>
+        <v>6625.781682767829</v>
       </c>
       <c r="S16">
-        <v>0.03745681378607368</v>
+        <v>0.03485982563926134</v>
       </c>
       <c r="T16">
-        <v>0.03745681378607368</v>
+        <v>0.03485982563926134</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H17">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N17">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O17">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P17">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q17">
-        <v>67.11131099157309</v>
+        <v>86.69600234817356</v>
       </c>
       <c r="R17">
-        <v>67.11131099157309</v>
+        <v>780.2640211335621</v>
       </c>
       <c r="S17">
-        <v>0.004168553861698145</v>
+        <v>0.004105156045217374</v>
       </c>
       <c r="T17">
-        <v>0.004168553861698145</v>
+        <v>0.004105156045217374</v>
       </c>
     </row>
   </sheetData>
